--- a/Unit Test/TestPlan-EN.xlsx
+++ b/Unit Test/TestPlan-EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/nam_vh204592_sis_hust_edu_vn/Documents/HUST/2023.1/TKXDPM/Exercise/Unit Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="13_ncr:1_{DB22D9CA-D218-41E1-976E-79EE266162DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AC74F9B-42DC-45C3-BA33-F11F793C169A}"/>
+  <xr:revisionPtr revIDLastSave="370" documentId="13_ncr:1_{DB22D9CA-D218-41E1-976E-79EE266162DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B926D4B7-C796-4F55-AEC0-04C9D0DB8C61}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="7" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="144">
   <si>
     <t xml:space="preserve">
 &lt;All notations inside the angle bracket are not part of this document, for its purpose is for extra instruction. When using this document, please erase all these notations and/or replace them with corresponding content as instructed&gt;
@@ -161,10 +161,6 @@
     <t>3. Testing Approach/Strategy</t>
   </si>
   <si>
-    <t>&lt; Describe the overall approach that will be used to test all functions, features, and requirements of the automated system, application, or situation for which the Test Plan applies. As applicable to this Test Plan, describe the measures to be taken to ensure all aspects of the system are successfully tested and can be implemented. Document key aspects of the testing approach, such as content, methodology, prioritization, and progression of development, validation, implementation, and operational testing activities to be performed during the corresponding lifecycle phases
-For example, will some unit and application integration testing be done, and then some more development, and so on? Is a prototype being built that will be usability tested before the releasable software is developed? Also include plans for testing related documentation (e.g., installation instructions, User Manual, Operations &amp; Maintenance (O&amp;M) Manual, Training Artifacts, etc.) and for conducting applicable readiness reviews. Also, if applicable, describe how reuse will be applied to the testing effort to make testing more efficient and less costly.&gt;</t>
-  </si>
-  <si>
     <t>4. Unit Testing Summary</t>
   </si>
   <si>
@@ -327,12 +323,6 @@
     <t>TC006</t>
   </si>
   <si>
-    <t>Verify sending a notification for successful payment</t>
-  </si>
-  <si>
-    <t>Verify sending an error notification for a failed payment.</t>
-  </si>
-  <si>
     <t>TC007</t>
   </si>
   <si>
@@ -348,9 +338,6 @@
     <t>Check Notification and Confirmation</t>
   </si>
   <si>
-    <t xml:space="preserve">TC007, TC008 </t>
-  </si>
-  <si>
     <t>&lt;Mark the cell with an "x" where the Test Case tests.&gt;</t>
   </si>
   <si>
@@ -379,21 +366,6 @@
   </si>
   <si>
     <t>Verify when no products are selected.</t>
-  </si>
-  <si>
-    <t>Verify when the quantity of products is negative.</t>
-  </si>
-  <si>
-    <t>TC001, TC002</t>
-  </si>
-  <si>
-    <t>TC003, TC004, TC005, TC006</t>
-  </si>
-  <si>
-    <t>TC007, TC008</t>
-  </si>
-  <si>
-    <t>Verify when rush delivery is not available for the selected address.</t>
   </si>
   <si>
     <t>Verify when no products support rush delivery.</t>
@@ -427,9 +399,6 @@
     <t>Notice that no producteds are selected</t>
   </si>
   <si>
-    <t>Verify when the quantity of products is negative</t>
-  </si>
-  <si>
     <t>The shopping cart is empty</t>
   </si>
   <si>
@@ -475,9 +444,6 @@
     <t>5.3. Test Case Specification for "Verify when the shipping address is valid"</t>
   </si>
   <si>
-    <t>5.5. Test Case Specification for "Verify when rush delivery is not available for the selected address"</t>
-  </si>
-  <si>
     <t>Verify when rush delivery is not available for the selected address</t>
   </si>
   <si>
@@ -494,6 +460,57 @@
   </si>
   <si>
     <t>An error message that  no products in the order support rush delivery</t>
+  </si>
+  <si>
+    <t>Verify when the quantity of products is invalid.</t>
+  </si>
+  <si>
+    <t>Verify when the quantity of products is valid.</t>
+  </si>
+  <si>
+    <t>Verify when rush order is not available for the selected address.</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>Verify when rush order is available for the selected address.</t>
+  </si>
+  <si>
+    <t>Verify when products support rush delivery.</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>Verify when payment is successful</t>
+  </si>
+  <si>
+    <t>Verify when payment is fails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hướng tiếp cận hộp đen với kỹ thuật phân vùng tương đương </t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC011, TC012 </t>
+  </si>
+  <si>
+    <t>TC001, TC002, TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC004, TC005, TC006</t>
+  </si>
+  <si>
+    <t>TC007, TC008, TC009, TC010</t>
+  </si>
+  <si>
+    <t>5.5. Test Case Specification for "Verify when rush order is not available for the selected address"</t>
   </si>
 </sst>
 </file>
@@ -953,6 +970,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -962,12 +1003,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -977,44 +1012,47 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1029,41 +1067,20 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2146,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761A62CA-042B-4AB7-88FE-BD6245E104B7}">
   <dimension ref="D4:E10"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3243,7 +3260,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
@@ -3464,10 +3481,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8917CA0A-EA61-4F09-84F9-F925FF2C64CE}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A31" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3480,81 +3497,81 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="H4" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="18" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="D5" s="17">
-        <f>COUNTIF(D8:D14,"=x")</f>
+        <f>COUNTIF(D9:D17,"=x")</f>
         <v>2</v>
       </c>
       <c r="E5" s="17">
-        <f>COUNTIF(E6:E14,"=x")</f>
-        <v>5</v>
+        <f>COUNTIF(E6:E17,"=x")</f>
+        <v>6</v>
       </c>
       <c r="F5" s="17">
-        <f>COUNTIF(F8:F14,"=x")</f>
-        <v>2</v>
+        <f>COUNTIF(F9:F17,"=x")</f>
+        <v>4</v>
       </c>
       <c r="G5" s="17">
-        <f>COUNTIF(G8:G14,"=x")</f>
+        <f>COUNTIF(G9:G17,"=x")</f>
         <v>0</v>
       </c>
       <c r="H5" s="17">
-        <f>COUNTIF(H8:H14,"=x")</f>
+        <f>COUNTIF(H9:H17,"=x")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C6" s="17">
         <f>COUNTIF(D6:H6,"=x")</f>
@@ -3562,18 +3579,18 @@
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C7" s="17">
         <f>COUNTIF(D7:H7,"=x")</f>
@@ -3581,45 +3598,45 @@
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>94</v>
+      <c r="B8" s="34" t="s">
+        <v>127</v>
       </c>
       <c r="C8" s="17">
         <f>COUNTIF(D8:H8,"=x")</f>
         <v>1</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>95</v>
+      <c r="B9" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="C9" s="17">
-        <f t="shared" ref="C9:C14" si="0">COUNTIF(D9:H9,"=x")</f>
+        <f>COUNTIF(D9:H9,"=x")</f>
         <v>1</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -3629,46 +3646,46 @@
       <c r="A10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>96</v>
+      <c r="B10" s="39" t="s">
+        <v>91</v>
       </c>
       <c r="C10" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C10:C17" si="0">COUNTIF(D10:H10,"=x")</f>
         <v>1</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="38"/>
+        <v>39</v>
+      </c>
+      <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>104</v>
+        <v>80</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="C11" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="E11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="38"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>105</v>
+      <c r="B12" s="34" t="s">
+        <v>129</v>
       </c>
       <c r="C12" s="17">
         <f t="shared" si="0"/>
@@ -3677,221 +3694,280 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="C13" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="C14" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="F14" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="B21" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="C21" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="59" t="s">
+      <c r="G21" s="53"/>
+    </row>
+    <row r="22" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="61"/>
-    </row>
-    <row r="19" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="55"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>47</v>
+      <c r="B22" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="D22" s="60"/>
       <c r="E22" s="61"/>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="58"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="53"/>
+    </row>
+    <row r="26" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="61"/>
-    </row>
-    <row r="23" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="55"/>
-    </row>
-    <row r="24" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="16" t="s">
+      <c r="B26" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>47</v>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="58"/>
+    </row>
+    <row r="27" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D27" s="60"/>
       <c r="E27" s="61"/>
-      <c r="F27" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="61"/>
-    </row>
-    <row r="28" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="55"/>
+      <c r="F27" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="58"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="53"/>
+    </row>
+    <row r="31" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="1.1811023622047243" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3903,8 +3979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4718D1D-4F97-4C92-8AD5-0F4CAB008D82}">
   <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A88" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A95" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3919,28 +3995,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="81"/>
+      <c r="A3" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="66"/>
       <c r="C3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="81"/>
+        <v>38</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="66"/>
       <c r="F3" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -3948,26 +4024,26 @@
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="80" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="67"/>
+      <c r="H4" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="26" t="s">
+      <c r="I4" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>57</v>
       </c>
       <c r="J4" s="27"/>
     </row>
@@ -3984,12 +4060,12 @@
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="71"/>
+      <c r="C6" s="24" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="24" t="s">
-        <v>59</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -4012,26 +4088,26 @@
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="71"/>
+      <c r="C8" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="85" t="s">
+      <c r="E8" s="71"/>
+      <c r="F8" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="74"/>
+      <c r="H8" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -4045,27 +4121,27 @@
     </row>
     <row r="10" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>1</v>
       </c>
-      <c r="B11" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
+      <c r="B11" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="25"/>
@@ -4081,17 +4157,17 @@
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
@@ -4101,11 +4177,11 @@
       <c r="A14" s="30">
         <v>1</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -4115,11 +4191,11 @@
       <c r="A15" s="30">
         <v>2</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
@@ -4129,11 +4205,11 @@
       <c r="A16" s="30">
         <v>3</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -4141,23 +4217,23 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="84"/>
+      <c r="C18" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="24" t="s">
-        <v>70</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -4171,102 +4247,102 @@
       <c r="C19" s="32"/>
     </row>
     <row r="20" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="C20" s="79"/>
+      <c r="D20" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="74" t="s">
+      <c r="E20" s="82"/>
+      <c r="F20" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="75"/>
-      <c r="F20" s="77" t="s">
+      <c r="G20" s="76"/>
+      <c r="H20" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="72"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
     </row>
     <row r="22" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
         <v>1</v>
       </c>
-      <c r="B22" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
+      <c r="B22" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="78"/>
+      <c r="D22" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="30">
         <v>2</v>
       </c>
-      <c r="B23" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
+      <c r="B23" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="78"/>
+      <c r="D23" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="81"/>
+      <c r="A27" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="66"/>
       <c r="C27" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="81"/>
+        <v>40</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="66"/>
       <c r="F27" s="24" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -4274,26 +4350,26 @@
       <c r="J27" s="25"/>
     </row>
     <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="66"/>
+      <c r="C28" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="80" t="s">
+      <c r="E28" s="66"/>
+      <c r="F28" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="86"/>
+      <c r="H28" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="81"/>
-      <c r="F28" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="82"/>
-      <c r="H28" s="26" t="s">
+      <c r="I28" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>57</v>
       </c>
       <c r="J28" s="27"/>
     </row>
@@ -4310,10 +4386,10 @@
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="84"/>
+      <c r="A30" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="71"/>
       <c r="C30" s="24"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -4336,26 +4412,26 @@
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="71"/>
+      <c r="C32" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="85" t="s">
+      <c r="E32" s="71"/>
+      <c r="F32" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="74"/>
+      <c r="H32" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="84"/>
-      <c r="F32" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="87"/>
-      <c r="H32" s="26" t="s">
+      <c r="I32" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -4369,27 +4445,27 @@
     </row>
     <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="30">
         <v>1</v>
       </c>
-      <c r="B35" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
+      <c r="B35" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
@@ -4405,17 +4481,17 @@
     </row>
     <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
@@ -4425,11 +4501,11 @@
       <c r="A38" s="30">
         <v>1</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
@@ -4437,21 +4513,21 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="32"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="71"/>
+      <c r="A40" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="84"/>
       <c r="C40" s="24"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -4465,102 +4541,102 @@
       <c r="C41" s="32"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="69" t="s">
+      <c r="C42" s="79"/>
+      <c r="D42" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="74" t="s">
+      <c r="E42" s="82"/>
+      <c r="F42" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="75"/>
-      <c r="F42" s="77" t="s">
+      <c r="G42" s="76"/>
+      <c r="H42" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="77"/>
-      <c r="H42" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="72"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
     </row>
     <row r="44" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30">
         <v>1</v>
       </c>
-      <c r="B44" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
+      <c r="B44" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="78"/>
+      <c r="D44" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
     </row>
     <row r="45" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="30">
         <v>2</v>
       </c>
-      <c r="B45" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="66"/>
-      <c r="D45" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
+      <c r="B45" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="78"/>
+      <c r="D45" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
     </row>
     <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="81"/>
+      <c r="A49" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="66"/>
       <c r="C49" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="81"/>
+        <v>41</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="66"/>
       <c r="F49" s="24" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
@@ -4568,26 +4644,26 @@
       <c r="J49" s="25"/>
     </row>
     <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="66"/>
+      <c r="C50" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="81"/>
-      <c r="C50" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="80" t="s">
+      <c r="E50" s="66"/>
+      <c r="F50" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" s="86"/>
+      <c r="H50" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="81"/>
-      <c r="F50" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="G50" s="82"/>
-      <c r="H50" s="26" t="s">
+      <c r="I50" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="I50" s="27" t="s">
-        <v>57</v>
       </c>
       <c r="J50" s="27"/>
     </row>
@@ -4604,10 +4680,10 @@
       <c r="J51" s="25"/>
     </row>
     <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="84"/>
+      <c r="A52" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="71"/>
       <c r="C52" s="24"/>
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
@@ -4630,26 +4706,26 @@
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A54" s="85" t="s">
+      <c r="A54" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="71"/>
+      <c r="C54" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="84"/>
-      <c r="C54" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="85" t="s">
+      <c r="E54" s="71"/>
+      <c r="F54" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="G54" s="74"/>
+      <c r="H54" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E54" s="84"/>
-      <c r="F54" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="G54" s="87"/>
-      <c r="H54" s="26" t="s">
+      <c r="I54" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I54" s="25" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -4663,27 +4739,27 @@
     </row>
     <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="30">
         <v>1</v>
       </c>
-      <c r="B57" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
+      <c r="B57" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="25"/>
@@ -4699,17 +4775,17 @@
     </row>
     <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
@@ -4719,15 +4795,15 @@
       <c r="A60" s="30">
         <v>1</v>
       </c>
-      <c r="B60" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
+      <c r="B60" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
@@ -4737,15 +4813,15 @@
       <c r="A61" s="30">
         <v>2</v>
       </c>
-      <c r="B61" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
+      <c r="B61" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
@@ -4755,15 +4831,15 @@
       <c r="A62" s="30">
         <v>3</v>
       </c>
-      <c r="B62" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
+      <c r="B62" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
@@ -4773,15 +4849,15 @@
       <c r="A63" s="30">
         <v>4</v>
       </c>
-      <c r="B63" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
+      <c r="B63" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
@@ -4789,21 +4865,21 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="32"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
       <c r="G64" s="24"/>
       <c r="H64" s="24"/>
       <c r="I64" s="24"/>
       <c r="J64" s="24"/>
     </row>
     <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="71"/>
+      <c r="A65" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="84"/>
       <c r="C65" s="24"/>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
@@ -4817,124 +4893,124 @@
       <c r="C66" s="32"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="69" t="s">
+      <c r="A67" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="69" t="s">
+      <c r="C67" s="79"/>
+      <c r="D67" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="74" t="s">
+      <c r="E67" s="82"/>
+      <c r="F67" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="E67" s="75"/>
-      <c r="F67" s="77" t="s">
+      <c r="G67" s="76"/>
+      <c r="H67" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="77"/>
-      <c r="H67" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="I67" s="69"/>
-      <c r="J67" s="69"/>
+      <c r="I67" s="77"/>
+      <c r="J67" s="77"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="72"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="69"/>
+      <c r="A68" s="79"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="30">
         <v>1</v>
       </c>
-      <c r="B69" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="C69" s="66"/>
-      <c r="D69" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G69" s="65"/>
-      <c r="H69" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I69" s="65"/>
-      <c r="J69" s="65"/>
+      <c r="B69" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="78"/>
+      <c r="D69" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
     </row>
     <row r="70" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="30">
         <v>2</v>
       </c>
-      <c r="B70" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" s="66"/>
-      <c r="D70" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I70" s="65"/>
-      <c r="J70" s="65"/>
+      <c r="B70" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="78"/>
+      <c r="D70" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G70" s="69"/>
+      <c r="H70" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I70" s="69"/>
+      <c r="J70" s="69"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="30">
         <v>3</v>
       </c>
-      <c r="B71" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="C71" s="66"/>
-      <c r="D71" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I71" s="65"/>
-      <c r="J71" s="65"/>
+      <c r="B71" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="78"/>
+      <c r="D71" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I71" s="69"/>
+      <c r="J71" s="69"/>
     </row>
     <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B75" s="81"/>
+      <c r="A75" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75" s="66"/>
       <c r="C75" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D75" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="E75" s="81"/>
+        <v>43</v>
+      </c>
+      <c r="D75" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="66"/>
       <c r="F75" s="24" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
@@ -4942,26 +5018,26 @@
       <c r="J75" s="25"/>
     </row>
     <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="80" t="s">
+      <c r="A76" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="66"/>
+      <c r="C76" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B76" s="81"/>
-      <c r="C76" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" s="80" t="s">
+      <c r="E76" s="66"/>
+      <c r="F76" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="G76" s="86"/>
+      <c r="H76" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E76" s="81"/>
-      <c r="F76" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="G76" s="82"/>
-      <c r="H76" s="26" t="s">
+      <c r="I76" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="I76" s="27" t="s">
-        <v>57</v>
       </c>
       <c r="J76" s="27"/>
     </row>
@@ -4978,10 +5054,10 @@
       <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="84"/>
+      <c r="A78" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="71"/>
       <c r="C78" s="24"/>
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
@@ -5004,26 +5080,26 @@
       <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="85" t="s">
+      <c r="A80" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" s="71"/>
+      <c r="C80" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="B80" s="84"/>
-      <c r="C80" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D80" s="85" t="s">
+      <c r="E80" s="71"/>
+      <c r="F80" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="G80" s="74"/>
+      <c r="H80" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E80" s="84"/>
-      <c r="F80" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="G80" s="87"/>
-      <c r="H80" s="26" t="s">
+      <c r="I80" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I80" s="25" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -5037,27 +5113,27 @@
     </row>
     <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B82" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C82" s="78"/>
-      <c r="D82" s="78"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="78"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="75"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="30">
         <v>1</v>
       </c>
-      <c r="B83" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
+      <c r="B83" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="69"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="25"/>
@@ -5073,17 +5149,17 @@
     </row>
     <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B85" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C85" s="79"/>
-      <c r="D85" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="E85" s="79"/>
-      <c r="F85" s="79"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
@@ -5093,11 +5169,11 @@
       <c r="A86" s="30">
         <v>1</v>
       </c>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="65"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="69"/>
+      <c r="F86" s="69"/>
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
@@ -5107,11 +5183,11 @@
       <c r="A87" s="30">
         <v>2</v>
       </c>
-      <c r="B87" s="65"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="69"/>
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
@@ -5121,11 +5197,11 @@
       <c r="A88" s="30">
         <v>3</v>
       </c>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="69"/>
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
@@ -5135,11 +5211,11 @@
       <c r="A89" s="30">
         <v>4</v>
       </c>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="65"/>
-      <c r="F89" s="65"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
@@ -5147,21 +5223,21 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="32"/>
-      <c r="B90" s="70"/>
-      <c r="C90" s="70"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="70"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
       <c r="G90" s="24"/>
       <c r="H90" s="24"/>
       <c r="I90" s="24"/>
       <c r="J90" s="24"/>
     </row>
     <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B91" s="71"/>
+      <c r="A91" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="84"/>
       <c r="C91" s="24"/>
       <c r="D91" s="25"/>
       <c r="E91" s="25"/>
@@ -5175,146 +5251,146 @@
       <c r="C92" s="32"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="69" t="s">
+      <c r="A93" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B93" s="69" t="s">
+      <c r="C93" s="79"/>
+      <c r="D93" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="C93" s="72"/>
-      <c r="D93" s="74" t="s">
+      <c r="E93" s="82"/>
+      <c r="F93" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="E93" s="75"/>
-      <c r="F93" s="77" t="s">
+      <c r="G93" s="76"/>
+      <c r="H93" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="G93" s="77"/>
-      <c r="H93" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="I93" s="69"/>
-      <c r="J93" s="69"/>
+      <c r="I93" s="77"/>
+      <c r="J93" s="77"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="72"/>
-      <c r="B94" s="73"/>
-      <c r="C94" s="73"/>
-      <c r="D94" s="76"/>
-      <c r="E94" s="76"/>
-      <c r="F94" s="77"/>
-      <c r="G94" s="77"/>
-      <c r="H94" s="69"/>
-      <c r="I94" s="69"/>
-      <c r="J94" s="69"/>
+      <c r="A94" s="79"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="80"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="76"/>
+      <c r="H94" s="77"/>
+      <c r="I94" s="77"/>
+      <c r="J94" s="77"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="30">
         <v>1</v>
       </c>
-      <c r="B95" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="C95" s="66"/>
-      <c r="D95" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G95" s="65"/>
-      <c r="H95" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I95" s="65"/>
-      <c r="J95" s="65"/>
+      <c r="B95" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="78"/>
+      <c r="D95" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" s="69"/>
+      <c r="F95" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G95" s="69"/>
+      <c r="H95" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I95" s="69"/>
+      <c r="J95" s="69"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="30">
         <v>2</v>
       </c>
-      <c r="B96" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="C96" s="66"/>
-      <c r="D96" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I96" s="65"/>
-      <c r="J96" s="65"/>
+      <c r="B96" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="78"/>
+      <c r="D96" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="69"/>
+      <c r="F96" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G96" s="69"/>
+      <c r="H96" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I96" s="69"/>
+      <c r="J96" s="69"/>
     </row>
     <row r="97" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="30">
         <v>3</v>
       </c>
-      <c r="B97" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="C97" s="66"/>
-      <c r="D97" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="E97" s="65"/>
-      <c r="F97" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="G97" s="68"/>
-      <c r="H97" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I97" s="65"/>
-      <c r="J97" s="65"/>
+      <c r="B97" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="78"/>
+      <c r="D97" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="E97" s="69"/>
+      <c r="F97" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="G97" s="88"/>
+      <c r="H97" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I97" s="69"/>
+      <c r="J97" s="69"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="30">
         <v>4</v>
       </c>
-      <c r="B98" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="C98" s="66"/>
-      <c r="D98" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E98" s="65"/>
-      <c r="F98" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="G98" s="68"/>
-      <c r="H98" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I98" s="65"/>
-      <c r="J98" s="65"/>
+      <c r="B98" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="78"/>
+      <c r="D98" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E98" s="69"/>
+      <c r="F98" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="G98" s="88"/>
+      <c r="H98" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I98" s="69"/>
+      <c r="J98" s="69"/>
     </row>
     <row r="101" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B102" s="81"/>
+      <c r="A102" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B102" s="66"/>
       <c r="C102" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D102" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="E102" s="81"/>
+        <v>80</v>
+      </c>
+      <c r="D102" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E102" s="66"/>
       <c r="F102" s="24" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G102" s="25"/>
       <c r="H102" s="25"/>
@@ -5322,26 +5398,26 @@
       <c r="J102" s="25"/>
     </row>
     <row r="103" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="80" t="s">
+      <c r="A103" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" s="66"/>
+      <c r="C103" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D103" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B103" s="81"/>
-      <c r="C103" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D103" s="80" t="s">
+      <c r="E103" s="66"/>
+      <c r="F103" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="G103" s="86"/>
+      <c r="H103" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E103" s="81"/>
-      <c r="F103" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="G103" s="82"/>
-      <c r="H103" s="26" t="s">
+      <c r="I103" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="I103" s="27" t="s">
-        <v>57</v>
       </c>
       <c r="J103" s="27"/>
     </row>
@@ -5358,10 +5434,10 @@
       <c r="J104" s="25"/>
     </row>
     <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="B105" s="84"/>
+      <c r="A105" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B105" s="71"/>
       <c r="C105" s="24"/>
       <c r="D105" s="28"/>
       <c r="E105" s="28"/>
@@ -5384,26 +5460,26 @@
       <c r="J106" s="25"/>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="85" t="s">
+      <c r="A107" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B107" s="71"/>
+      <c r="C107" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D107" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="B107" s="84"/>
-      <c r="C107" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D107" s="85" t="s">
+      <c r="E107" s="71"/>
+      <c r="F107" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="G107" s="74"/>
+      <c r="H107" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E107" s="84"/>
-      <c r="F107" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="G107" s="87"/>
-      <c r="H107" s="26" t="s">
+      <c r="I107" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I107" s="25" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -5417,27 +5493,27 @@
     </row>
     <row r="109" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B109" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B109" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C109" s="78"/>
-      <c r="D109" s="78"/>
-      <c r="E109" s="78"/>
-      <c r="F109" s="78"/>
+      <c r="C109" s="75"/>
+      <c r="D109" s="75"/>
+      <c r="E109" s="75"/>
+      <c r="F109" s="75"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="30">
         <v>1</v>
       </c>
-      <c r="B110" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="C110" s="65"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="65"/>
-      <c r="F110" s="65"/>
+      <c r="B110" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" s="69"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="69"/>
+      <c r="F110" s="69"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="25"/>
@@ -5453,17 +5529,17 @@
     </row>
     <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B112" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" s="68"/>
+      <c r="D112" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C112" s="79"/>
-      <c r="D112" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="E112" s="79"/>
-      <c r="F112" s="79"/>
+      <c r="E112" s="68"/>
+      <c r="F112" s="68"/>
       <c r="G112" s="25"/>
       <c r="H112" s="25"/>
       <c r="I112" s="25"/>
@@ -5471,11 +5547,11 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="30"/>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
+      <c r="B113" s="69"/>
+      <c r="C113" s="69"/>
+      <c r="D113" s="69"/>
+      <c r="E113" s="69"/>
+      <c r="F113" s="69"/>
       <c r="G113" s="25"/>
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
@@ -5483,11 +5559,11 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="30"/>
-      <c r="B114" s="65"/>
-      <c r="C114" s="65"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="65"/>
-      <c r="F114" s="65"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="69"/>
+      <c r="D114" s="69"/>
+      <c r="E114" s="69"/>
+      <c r="F114" s="69"/>
       <c r="G114" s="25"/>
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
@@ -5495,11 +5571,11 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="30"/>
-      <c r="B115" s="65"/>
-      <c r="C115" s="65"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="65"/>
-      <c r="F115" s="65"/>
+      <c r="B115" s="69"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="69"/>
+      <c r="F115" s="69"/>
       <c r="G115" s="25"/>
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
@@ -5507,11 +5583,11 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="30"/>
-      <c r="B116" s="65"/>
-      <c r="C116" s="65"/>
-      <c r="D116" s="65"/>
-      <c r="E116" s="65"/>
-      <c r="F116" s="65"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="69"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="69"/>
+      <c r="F116" s="69"/>
       <c r="G116" s="25"/>
       <c r="H116" s="25"/>
       <c r="I116" s="25"/>
@@ -5519,21 +5595,21 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="32"/>
-      <c r="B117" s="70"/>
-      <c r="C117" s="70"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="70"/>
-      <c r="F117" s="70"/>
+      <c r="B117" s="67"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="67"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
       <c r="G117" s="24"/>
       <c r="H117" s="24"/>
       <c r="I117" s="24"/>
       <c r="J117" s="24"/>
     </row>
     <row r="118" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B118" s="71"/>
+      <c r="A118" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B118" s="84"/>
       <c r="C118" s="24"/>
       <c r="D118" s="25"/>
       <c r="E118" s="25"/>
@@ -5547,302 +5623,129 @@
       <c r="C119" s="32"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="69" t="s">
+      <c r="A120" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B120" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B120" s="69" t="s">
+      <c r="C120" s="79"/>
+      <c r="D120" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="C120" s="72"/>
-      <c r="D120" s="74" t="s">
+      <c r="E120" s="82"/>
+      <c r="F120" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="E120" s="75"/>
-      <c r="F120" s="77" t="s">
+      <c r="G120" s="76"/>
+      <c r="H120" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="G120" s="77"/>
-      <c r="H120" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="I120" s="69"/>
-      <c r="J120" s="69"/>
+      <c r="I120" s="77"/>
+      <c r="J120" s="77"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="72"/>
-      <c r="B121" s="73"/>
-      <c r="C121" s="73"/>
-      <c r="D121" s="76"/>
-      <c r="E121" s="76"/>
-      <c r="F121" s="77"/>
-      <c r="G121" s="77"/>
-      <c r="H121" s="69"/>
-      <c r="I121" s="69"/>
-      <c r="J121" s="69"/>
+      <c r="A121" s="79"/>
+      <c r="B121" s="80"/>
+      <c r="C121" s="80"/>
+      <c r="D121" s="83"/>
+      <c r="E121" s="83"/>
+      <c r="F121" s="76"/>
+      <c r="G121" s="76"/>
+      <c r="H121" s="77"/>
+      <c r="I121" s="77"/>
+      <c r="J121" s="77"/>
     </row>
     <row r="122" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="30">
         <v>1</v>
       </c>
-      <c r="B122" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="C122" s="66"/>
-      <c r="D122" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="E122" s="65"/>
-      <c r="F122" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G122" s="65"/>
-      <c r="H122" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I122" s="65"/>
-      <c r="J122" s="65"/>
+      <c r="B122" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C122" s="78"/>
+      <c r="D122" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E122" s="69"/>
+      <c r="F122" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G122" s="69"/>
+      <c r="H122" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I122" s="69"/>
+      <c r="J122" s="69"/>
     </row>
     <row r="123" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="30">
         <v>2</v>
       </c>
-      <c r="B123" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="C123" s="66"/>
-      <c r="D123" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="E123" s="65"/>
-      <c r="F123" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G123" s="65"/>
-      <c r="H123" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I123" s="65"/>
-      <c r="J123" s="65"/>
+      <c r="B123" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C123" s="78"/>
+      <c r="D123" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E123" s="69"/>
+      <c r="F123" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G123" s="69"/>
+      <c r="H123" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I123" s="69"/>
+      <c r="J123" s="69"/>
     </row>
     <row r="124" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="30">
         <v>3</v>
       </c>
-      <c r="B124" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="C124" s="66"/>
-      <c r="D124" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="E124" s="65"/>
-      <c r="F124" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G124" s="65"/>
-      <c r="H124" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I124" s="65"/>
-      <c r="J124" s="65"/>
+      <c r="B124" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C124" s="78"/>
+      <c r="D124" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="E124" s="69"/>
+      <c r="F124" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G124" s="69"/>
+      <c r="H124" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I124" s="69"/>
+      <c r="J124" s="69"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="30">
         <v>4</v>
       </c>
-      <c r="B125" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="C125" s="66"/>
-      <c r="D125" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="E125" s="65"/>
-      <c r="F125" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G125" s="65"/>
-      <c r="H125" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I125" s="65"/>
-      <c r="J125" s="65"/>
+      <c r="B125" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125" s="78"/>
+      <c r="D125" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="E125" s="69"/>
+      <c r="F125" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G125" s="69"/>
+      <c r="H125" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I125" s="69"/>
+      <c r="J125" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="197">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="H20:J21"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D42:E43"/>
-    <mergeCell ref="F42:G43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="D67:E68"/>
-    <mergeCell ref="F67:G68"/>
-    <mergeCell ref="H67:J68"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:C94"/>
-    <mergeCell ref="D93:E94"/>
-    <mergeCell ref="F93:G94"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="H93:J94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:C121"/>
-    <mergeCell ref="D120:E121"/>
-    <mergeCell ref="F120:G121"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:F116"/>
     <mergeCell ref="B125:C125"/>
     <mergeCell ref="D125:E125"/>
     <mergeCell ref="F125:G125"/>
@@ -5867,6 +5770,179 @@
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:F117"/>
     <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:C121"/>
+    <mergeCell ref="D120:E121"/>
+    <mergeCell ref="F120:G121"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="H93:J94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:C94"/>
+    <mergeCell ref="D93:E94"/>
+    <mergeCell ref="F93:G94"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="D67:E68"/>
+    <mergeCell ref="F67:G68"/>
+    <mergeCell ref="H67:J68"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D42:E43"/>
+    <mergeCell ref="F42:G43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="H20:J21"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="1.1811023622047245" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5874,18 +5950,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6106,18 +6182,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
